--- a/results/mp/tinybert/corona/confidence/168/stop-words-masking-0.15/avg_0.002_scores.xlsx
+++ b/results/mp/tinybert/corona/confidence/168/stop-words-masking-0.15/avg_0.002_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="116">
   <si>
     <t>anchor score</t>
   </si>
@@ -49,79 +49,79 @@
     <t>crude</t>
   </si>
   <si>
-    <t>complaints</t>
+    <t>died</t>
   </si>
   <si>
     <t>fraud</t>
   </si>
   <si>
-    <t>died</t>
+    <t>poor</t>
+  </si>
+  <si>
+    <t>warning</t>
   </si>
   <si>
     <t>crisis</t>
   </si>
   <si>
-    <t>poor</t>
-  </si>
-  <si>
     <t>forced</t>
   </si>
   <si>
-    <t>warning</t>
-  </si>
-  <si>
-    <t>uncertainty</t>
-  </si>
-  <si>
     <t>war</t>
   </si>
   <si>
+    <t>fuck</t>
+  </si>
+  <si>
+    <t>fear</t>
+  </si>
+  <si>
+    <t>shit</t>
+  </si>
+  <si>
+    <t>collapse</t>
+  </si>
+  <si>
     <t>recession</t>
   </si>
   <si>
-    <t>collapse</t>
-  </si>
-  <si>
-    <t>fear</t>
-  </si>
-  <si>
-    <t>shit</t>
-  </si>
-  <si>
-    <t>anxiety</t>
-  </si>
-  <si>
-    <t>fuck</t>
-  </si>
-  <si>
     <t>shame</t>
   </si>
   <si>
+    <t>emergency</t>
+  </si>
+  <si>
+    <t>fears</t>
+  </si>
+  <si>
+    <t>die</t>
+  </si>
+  <si>
     <t>low</t>
   </si>
   <si>
     <t>panic</t>
   </si>
   <si>
-    <t>fears</t>
-  </si>
-  <si>
-    <t>emergency</t>
-  </si>
-  <si>
     <t>sc</t>
   </si>
   <si>
+    <t>drop</t>
+  </si>
+  <si>
+    <t>shortage</t>
+  </si>
+  <si>
+    <t>isolation</t>
+  </si>
+  <si>
+    <t>avoid</t>
+  </si>
+  <si>
     <t>risk</t>
   </si>
   <si>
-    <t>isolation</t>
-  </si>
-  <si>
-    <t>shortage</t>
-  </si>
-  <si>
-    <t>drop</t>
+    <t>fight</t>
   </si>
   <si>
     <t>empty</t>
@@ -136,199 +136,205 @@
     <t>negative</t>
   </si>
   <si>
+    <t>enjoy</t>
+  </si>
+  <si>
+    <t>amazing</t>
+  </si>
+  <si>
     <t>beauty</t>
   </si>
   <si>
+    <t>happy</t>
+  </si>
+  <si>
     <t>strong</t>
   </si>
   <si>
+    <t>friend</t>
+  </si>
+  <si>
     <t>best</t>
   </si>
   <si>
-    <t>amazing</t>
+    <t>love</t>
   </si>
   <si>
     <t>interesting</t>
   </si>
   <si>
-    <t>love</t>
-  </si>
-  <si>
-    <t>happy</t>
+    <t>nice</t>
+  </si>
+  <si>
+    <t>special</t>
+  </si>
+  <si>
+    <t>wow</t>
   </si>
   <si>
     <t>great</t>
   </si>
   <si>
-    <t>nice</t>
-  </si>
-  <si>
-    <t>friend</t>
-  </si>
-  <si>
     <t>thanks</t>
   </si>
   <si>
+    <t>healthy</t>
+  </si>
+  <si>
     <t>thank</t>
   </si>
   <si>
-    <t>special</t>
+    <t>creative</t>
   </si>
   <si>
     <t>positive</t>
   </si>
   <si>
+    <t>friends</t>
+  </si>
+  <si>
+    <t>free</t>
+  </si>
+  <si>
     <t>ensure</t>
   </si>
   <si>
+    <t>safe</t>
+  </si>
+  <si>
     <t>heroes</t>
   </si>
   <si>
-    <t>healthy</t>
-  </si>
-  <si>
-    <t>free</t>
-  </si>
-  <si>
-    <t>safe</t>
+    <t>boost</t>
   </si>
   <si>
     <t>better</t>
   </si>
   <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>safety</t>
+  </si>
+  <si>
+    <t>confidence</t>
+  </si>
+  <si>
     <t>good</t>
   </si>
   <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>boost</t>
-  </si>
-  <si>
-    <t>safety</t>
-  </si>
-  <si>
-    <t>friends</t>
-  </si>
-  <si>
-    <t>confidence</t>
-  </si>
-  <si>
     <t>well</t>
   </si>
   <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>relief</t>
+  </si>
+  <si>
+    <t>credit</t>
+  </si>
+  <si>
     <t>fresh</t>
   </si>
   <si>
-    <t>relief</t>
-  </si>
-  <si>
-    <t>hand</t>
+    <t>important</t>
   </si>
   <si>
     <t>join</t>
   </si>
   <si>
-    <t>credit</t>
+    <t>like</t>
+  </si>
+  <si>
+    <t>energy</t>
   </si>
   <si>
     <t>worth</t>
   </si>
   <si>
-    <t>important</t>
+    <t>dear</t>
+  </si>
+  <si>
+    <t>ready</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>gt</t>
+  </si>
+  <si>
+    <t>care</t>
+  </si>
+  <si>
+    <t>clean</t>
+  </si>
+  <si>
+    <t>alert</t>
+  </si>
+  <si>
+    <t>please</t>
   </si>
   <si>
     <t>save</t>
   </si>
   <si>
-    <t>dear</t>
-  </si>
-  <si>
-    <t>like</t>
-  </si>
-  <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>energy</t>
-  </si>
-  <si>
-    <t>clean</t>
-  </si>
-  <si>
-    <t>ready</t>
+    <t>giving</t>
+  </si>
+  <si>
+    <t>sure</t>
+  </si>
+  <si>
+    <t>increase</t>
+  </si>
+  <si>
+    <t>protect</t>
   </si>
   <si>
     <t>hope</t>
   </si>
   <si>
-    <t>giving</t>
-  </si>
-  <si>
-    <t>sure</t>
-  </si>
-  <si>
-    <t>gt</t>
-  </si>
-  <si>
-    <t>care</t>
-  </si>
-  <si>
-    <t>growth</t>
-  </si>
-  <si>
-    <t>please</t>
-  </si>
-  <si>
-    <t>alert</t>
-  </si>
-  <si>
-    <t>increase</t>
-  </si>
-  <si>
-    <t>protect</t>
-  </si>
-  <si>
     <t>share</t>
   </si>
   <si>
+    <t>key</t>
+  </si>
+  <si>
     <t>give</t>
   </si>
   <si>
-    <t>key</t>
-  </si>
-  <si>
     <t>increased</t>
   </si>
   <si>
     <t>helping</t>
   </si>
   <si>
-    <t>available</t>
-  </si>
-  <si>
     <t>want</t>
   </si>
   <si>
+    <t>health</t>
+  </si>
+  <si>
+    <t>make</t>
+  </si>
+  <si>
+    <t>online</t>
+  </si>
+  <si>
     <t>essential</t>
   </si>
   <si>
-    <t>online</t>
-  </si>
-  <si>
-    <t>health</t>
-  </si>
-  <si>
     <t>shopping</t>
   </si>
   <si>
-    <t>retail</t>
+    <t>home</t>
   </si>
   <si>
     <t>new</t>
   </si>
   <si>
-    <t>home</t>
+    <t>local</t>
   </si>
   <si>
     <t>store</t>
@@ -343,10 +349,10 @@
     <t>consumer</t>
   </si>
   <si>
+    <t>19</t>
+  </si>
+  <si>
     <t>supermarket</t>
-  </si>
-  <si>
-    <t>19</t>
   </si>
   <si>
     <t>co</t>
@@ -713,7 +719,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q76"/>
+  <dimension ref="A1:Q78"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -724,7 +730,7 @@
         <v>39</v>
       </c>
       <c r="J1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -856,13 +862,13 @@
         <v>41</v>
       </c>
       <c r="K4">
-        <v>0.9545454545454546</v>
+        <v>1</v>
       </c>
       <c r="L4">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="M4">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -874,7 +880,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -882,13 +888,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.9411764705882353</v>
+        <v>0.9117647058823529</v>
       </c>
       <c r="C5">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D5">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -900,19 +906,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>42</v>
       </c>
       <c r="K5">
-        <v>0.9491525423728814</v>
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>56</v>
+        <v>13</v>
       </c>
       <c r="M5">
-        <v>56</v>
+        <v>13</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -924,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -932,13 +938,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.9285714285714286</v>
+        <v>0.7692307692307693</v>
       </c>
       <c r="C6">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="D6">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -950,19 +956,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>43</v>
       </c>
       <c r="K6">
-        <v>0.9444444444444444</v>
+        <v>0.9615384615384616</v>
       </c>
       <c r="L6">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="M6">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -982,13 +988,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.8055555555555556</v>
+        <v>0.75</v>
       </c>
       <c r="C7">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D7">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -1000,19 +1006,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="J7" s="1" t="s">
         <v>44</v>
       </c>
       <c r="K7">
-        <v>0.9393939393939394</v>
+        <v>0.9545454545454546</v>
       </c>
       <c r="L7">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="M7">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -1024,7 +1030,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1032,13 +1038,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.7307692307692307</v>
+        <v>0.7</v>
       </c>
       <c r="C8">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="D8">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -1050,19 +1056,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J8" s="1" t="s">
         <v>45</v>
       </c>
       <c r="K8">
-        <v>0.9347826086956522</v>
+        <v>0.9473684210526315</v>
       </c>
       <c r="L8">
-        <v>43</v>
+        <v>18</v>
       </c>
       <c r="M8">
-        <v>43</v>
+        <v>18</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -1074,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1082,13 +1088,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.7157534246575342</v>
+        <v>0.68</v>
       </c>
       <c r="C9">
-        <v>209</v>
+        <v>17</v>
       </c>
       <c r="D9">
-        <v>209</v>
+        <v>17</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1100,19 +1106,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>83</v>
+        <v>8</v>
       </c>
       <c r="J9" s="1" t="s">
         <v>46</v>
       </c>
       <c r="K9">
-        <v>0.9230769230769231</v>
+        <v>0.9322033898305084</v>
       </c>
       <c r="L9">
-        <v>24</v>
+        <v>55</v>
       </c>
       <c r="M9">
-        <v>24</v>
+        <v>55</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1124,7 +1130,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1132,13 +1138,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.7</v>
+        <v>0.6541095890410958</v>
       </c>
       <c r="C10">
-        <v>14</v>
+        <v>191</v>
       </c>
       <c r="D10">
-        <v>14</v>
+        <v>191</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1150,19 +1156,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>6</v>
+        <v>101</v>
       </c>
       <c r="J10" s="1" t="s">
         <v>47</v>
       </c>
       <c r="K10">
-        <v>0.8571428571428571</v>
+        <v>0.9130434782608695</v>
       </c>
       <c r="L10">
-        <v>96</v>
+        <v>42</v>
       </c>
       <c r="M10">
-        <v>96</v>
+        <v>42</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1174,7 +1180,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>16</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1182,13 +1188,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.6896551724137931</v>
+        <v>0.6206896551724138</v>
       </c>
       <c r="C11">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D11">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1200,19 +1206,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="J11" s="1" t="s">
         <v>48</v>
       </c>
       <c r="K11">
-        <v>0.8518518518518519</v>
+        <v>0.9090909090909091</v>
       </c>
       <c r="L11">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="M11">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1224,7 +1230,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1232,13 +1238,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.68</v>
+        <v>0.5789473684210527</v>
       </c>
       <c r="C12">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="D12">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1250,19 +1256,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="J12" s="1" t="s">
         <v>49</v>
       </c>
       <c r="K12">
-        <v>0.8421052631578947</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="L12">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="M12">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1282,13 +1288,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.6086956521739131</v>
+        <v>0.5641025641025641</v>
       </c>
       <c r="C13">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="D13">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1300,19 +1306,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="J13" s="1" t="s">
         <v>50</v>
       </c>
       <c r="K13">
-        <v>0.8414634146341463</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="L13">
-        <v>69</v>
+        <v>32</v>
       </c>
       <c r="M13">
-        <v>69</v>
+        <v>32</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1324,7 +1330,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>13</v>
+        <v>4</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1332,13 +1338,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.5526315789473685</v>
+        <v>0.5384615384615384</v>
       </c>
       <c r="C14">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="D14">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1350,19 +1356,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="J14" s="1" t="s">
         <v>51</v>
       </c>
       <c r="K14">
-        <v>0.8125</v>
+        <v>0.8666666666666667</v>
       </c>
       <c r="L14">
-        <v>104</v>
+        <v>13</v>
       </c>
       <c r="M14">
-        <v>104</v>
+        <v>13</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1374,7 +1380,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>24</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1382,13 +1388,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.5483870967741935</v>
+        <v>0.4871794871794872</v>
       </c>
       <c r="C15">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D15">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1400,19 +1406,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="J15" s="1" t="s">
         <v>52</v>
       </c>
       <c r="K15">
-        <v>0.8055555555555556</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="L15">
-        <v>29</v>
+        <v>96</v>
       </c>
       <c r="M15">
-        <v>29</v>
+        <v>96</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1424,7 +1430,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>7</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1432,13 +1438,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.5333333333333333</v>
+        <v>0.4333333333333333</v>
       </c>
       <c r="C16">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D16">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1450,19 +1456,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="J16" s="1" t="s">
         <v>53</v>
       </c>
       <c r="K16">
-        <v>0.7931034482758621</v>
+        <v>0.8292682926829268</v>
       </c>
       <c r="L16">
-        <v>46</v>
+        <v>68</v>
       </c>
       <c r="M16">
-        <v>46</v>
+        <v>68</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1474,7 +1480,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1482,7 +1488,7 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.5</v>
+        <v>0.4193548387096774</v>
       </c>
       <c r="C17">
         <v>13</v>
@@ -1500,19 +1506,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="J17" s="1" t="s">
         <v>54</v>
       </c>
       <c r="K17">
-        <v>0.7916666666666666</v>
+        <v>0.8148148148148148</v>
       </c>
       <c r="L17">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="M17">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1532,13 +1538,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.4615384615384616</v>
+        <v>0.3783783783783784</v>
       </c>
       <c r="C18">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D18">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1550,19 +1556,19 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="J18" s="1" t="s">
         <v>55</v>
       </c>
       <c r="K18">
-        <v>0.7872340425531915</v>
+        <v>0.8125</v>
       </c>
       <c r="L18">
-        <v>37</v>
+        <v>104</v>
       </c>
       <c r="M18">
-        <v>37</v>
+        <v>104</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1574,7 +1580,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>10</v>
+        <v>24</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1582,13 +1588,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.4193548387096774</v>
+        <v>0.36</v>
       </c>
       <c r="C19">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="D19">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1600,19 +1606,19 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>18</v>
+        <v>48</v>
       </c>
       <c r="J19" s="1" t="s">
         <v>56</v>
       </c>
       <c r="K19">
-        <v>0.7777777777777778</v>
+        <v>0.8125</v>
       </c>
       <c r="L19">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="M19">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1624,7 +1630,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1632,13 +1638,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.4102564102564102</v>
+        <v>0.3529411764705883</v>
       </c>
       <c r="C20">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D20">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1650,19 +1656,19 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="J20" s="1" t="s">
         <v>57</v>
       </c>
       <c r="K20">
-        <v>0.775</v>
+        <v>0.7931034482758621</v>
       </c>
       <c r="L20">
-        <v>93</v>
+        <v>46</v>
       </c>
       <c r="M20">
-        <v>93</v>
+        <v>46</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1674,7 +1680,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>27</v>
+        <v>12</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1682,13 +1688,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.4054054054054054</v>
+        <v>0.3513513513513514</v>
       </c>
       <c r="C21">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D21">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1700,19 +1706,19 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="J21" s="1" t="s">
         <v>58</v>
       </c>
       <c r="K21">
-        <v>0.7676056338028169</v>
+        <v>0.7857142857142857</v>
       </c>
       <c r="L21">
-        <v>109</v>
+        <v>22</v>
       </c>
       <c r="M21">
-        <v>109</v>
+        <v>22</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1724,7 +1730,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>33</v>
+        <v>6</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1732,13 +1738,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.3825503355704698</v>
+        <v>0.3422818791946309</v>
       </c>
       <c r="C22">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="D22">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1750,19 +1756,19 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="J22" s="1" t="s">
         <v>59</v>
       </c>
       <c r="K22">
-        <v>0.7619047619047619</v>
+        <v>0.775</v>
       </c>
       <c r="L22">
-        <v>48</v>
+        <v>93</v>
       </c>
       <c r="M22">
-        <v>48</v>
+        <v>93</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1774,7 +1780,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>15</v>
+        <v>27</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1806,13 +1812,13 @@
         <v>60</v>
       </c>
       <c r="K23">
-        <v>0.75625</v>
+        <v>0.75</v>
       </c>
       <c r="L23">
-        <v>121</v>
+        <v>18</v>
       </c>
       <c r="M23">
-        <v>121</v>
+        <v>18</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1824,7 +1830,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>39</v>
+        <v>6</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1832,13 +1838,13 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.3333333333333333</v>
+        <v>0.3174603174603174</v>
       </c>
       <c r="C24">
-        <v>17</v>
+        <v>60</v>
       </c>
       <c r="D24">
-        <v>17</v>
+        <v>60</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1850,19 +1856,19 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>34</v>
+        <v>129</v>
       </c>
       <c r="J24" s="1" t="s">
         <v>61</v>
       </c>
       <c r="K24">
-        <v>0.7452830188679245</v>
+        <v>0.7464788732394366</v>
       </c>
       <c r="L24">
-        <v>79</v>
+        <v>106</v>
       </c>
       <c r="M24">
-        <v>79</v>
+        <v>106</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1874,7 +1880,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>27</v>
+        <v>36</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1882,13 +1888,13 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.32</v>
+        <v>0.3050847457627119</v>
       </c>
       <c r="C25">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="D25">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1900,19 +1906,19 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="J25" s="1" t="s">
         <v>62</v>
       </c>
       <c r="K25">
-        <v>0.7391304347826086</v>
+        <v>0.7446808510638298</v>
       </c>
       <c r="L25">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="M25">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1924,7 +1930,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -1932,13 +1938,13 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.3015873015873016</v>
+        <v>0.288135593220339</v>
       </c>
       <c r="C26">
-        <v>57</v>
+        <v>17</v>
       </c>
       <c r="D26">
-        <v>57</v>
+        <v>17</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -1950,19 +1956,19 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>132</v>
+        <v>42</v>
       </c>
       <c r="J26" s="1" t="s">
         <v>63</v>
       </c>
       <c r="K26">
-        <v>0.7254901960784313</v>
+        <v>0.7391304347826086</v>
       </c>
       <c r="L26">
-        <v>37</v>
+        <v>17</v>
       </c>
       <c r="M26">
-        <v>37</v>
+        <v>17</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1974,7 +1980,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>14</v>
+        <v>6</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -1982,13 +1988,13 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.2597402597402597</v>
+        <v>0.2549019607843137</v>
       </c>
       <c r="C27">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="D27">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -2000,19 +2006,19 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>57</v>
+        <v>38</v>
       </c>
       <c r="J27" s="1" t="s">
         <v>64</v>
       </c>
       <c r="K27">
-        <v>0.7142857142857143</v>
+        <v>0.7301587301587301</v>
       </c>
       <c r="L27">
-        <v>20</v>
+        <v>46</v>
       </c>
       <c r="M27">
-        <v>20</v>
+        <v>46</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -2024,7 +2030,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>8</v>
+        <v>17</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -2032,7 +2038,7 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.2549019607843137</v>
+        <v>0.2363636363636364</v>
       </c>
       <c r="C28">
         <v>13</v>
@@ -2050,19 +2056,19 @@
         <v>0</v>
       </c>
       <c r="H28">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="J28" s="1" t="s">
         <v>65</v>
       </c>
       <c r="K28">
-        <v>0.6666666666666666</v>
+        <v>0.7264150943396226</v>
       </c>
       <c r="L28">
-        <v>24</v>
+        <v>77</v>
       </c>
       <c r="M28">
-        <v>24</v>
+        <v>77</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -2074,7 +2080,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>12</v>
+        <v>29</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -2082,13 +2088,13 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.2542372881355932</v>
+        <v>0.2337662337662338</v>
       </c>
       <c r="C29">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D29">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -2100,19 +2106,19 @@
         <v>0</v>
       </c>
       <c r="H29">
-        <v>44</v>
+        <v>59</v>
       </c>
       <c r="J29" s="1" t="s">
         <v>66</v>
       </c>
       <c r="K29">
-        <v>0.6595744680851063</v>
+        <v>0.7254901960784313</v>
       </c>
       <c r="L29">
-        <v>62</v>
+        <v>37</v>
       </c>
       <c r="M29">
-        <v>62</v>
+        <v>37</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -2124,7 +2130,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>32</v>
+        <v>14</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -2132,13 +2138,13 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.2372881355932203</v>
+        <v>0.225</v>
       </c>
       <c r="C30">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D30">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -2150,19 +2156,19 @@
         <v>0</v>
       </c>
       <c r="H30">
-        <v>45</v>
+        <v>62</v>
       </c>
       <c r="J30" s="1" t="s">
         <v>67</v>
       </c>
       <c r="K30">
-        <v>0.6458333333333334</v>
+        <v>0.6944444444444444</v>
       </c>
       <c r="L30">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="M30">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -2174,7 +2180,7 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -2182,13 +2188,13 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0.2111111111111111</v>
+        <v>0.1555555555555556</v>
       </c>
       <c r="C31">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="D31">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -2200,19 +2206,19 @@
         <v>0</v>
       </c>
       <c r="H31">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="J31" s="1" t="s">
         <v>68</v>
       </c>
       <c r="K31">
-        <v>0.62</v>
+        <v>0.675</v>
       </c>
       <c r="L31">
-        <v>31</v>
+        <v>108</v>
       </c>
       <c r="M31">
-        <v>31</v>
+        <v>108</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -2224,7 +2230,7 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>19</v>
+        <v>52</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -2232,13 +2238,13 @@
         <v>37</v>
       </c>
       <c r="B32">
-        <v>0.1746031746031746</v>
+        <v>0.1507936507936508</v>
       </c>
       <c r="C32">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="D32">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -2250,19 +2256,19 @@
         <v>0</v>
       </c>
       <c r="H32">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="J32" s="1" t="s">
         <v>69</v>
       </c>
       <c r="K32">
-        <v>0.6135770234986945</v>
+        <v>0.6595744680851063</v>
       </c>
       <c r="L32">
-        <v>235</v>
+        <v>62</v>
       </c>
       <c r="M32">
-        <v>235</v>
+        <v>62</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -2274,7 +2280,7 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>148</v>
+        <v>32</v>
       </c>
     </row>
     <row r="33" spans="1:17">
@@ -2282,13 +2288,13 @@
         <v>38</v>
       </c>
       <c r="B33">
-        <v>0.1045576407506702</v>
+        <v>0.08847184986595175</v>
       </c>
       <c r="C33">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="D33">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -2300,19 +2306,19 @@
         <v>0</v>
       </c>
       <c r="H33">
-        <v>334</v>
+        <v>340</v>
       </c>
       <c r="J33" s="1" t="s">
         <v>70</v>
       </c>
       <c r="K33">
-        <v>0.6046511627906976</v>
+        <v>0.6292428198433421</v>
       </c>
       <c r="L33">
-        <v>26</v>
+        <v>241</v>
       </c>
       <c r="M33">
-        <v>26</v>
+        <v>241</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -2324,7 +2330,7 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>17</v>
+        <v>142</v>
       </c>
     </row>
     <row r="34" spans="1:17">
@@ -2332,13 +2338,13 @@
         <v>71</v>
       </c>
       <c r="K34">
-        <v>0.5882352941176471</v>
+        <v>0.62</v>
       </c>
       <c r="L34">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="M34">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -2350,7 +2356,7 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="35" spans="1:17">
@@ -2358,13 +2364,13 @@
         <v>72</v>
       </c>
       <c r="K35">
-        <v>0.5833333333333334</v>
+        <v>0.6176470588235294</v>
       </c>
       <c r="L35">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="M35">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -2376,7 +2382,7 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="36" spans="1:17">
@@ -2384,13 +2390,13 @@
         <v>73</v>
       </c>
       <c r="K36">
-        <v>0.5777777777777777</v>
+        <v>0.6041666666666666</v>
       </c>
       <c r="L36">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="M36">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -2410,13 +2416,13 @@
         <v>74</v>
       </c>
       <c r="K37">
-        <v>0.5714285714285714</v>
+        <v>0.6</v>
       </c>
       <c r="L37">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="M37">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -2428,7 +2434,7 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="38" spans="1:17">
@@ -2436,13 +2442,13 @@
         <v>75</v>
       </c>
       <c r="K38">
-        <v>0.5714285714285714</v>
+        <v>0.5813953488372093</v>
       </c>
       <c r="L38">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="M38">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -2454,7 +2460,7 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="39" spans="1:17">
@@ -2462,13 +2468,13 @@
         <v>76</v>
       </c>
       <c r="K39">
-        <v>0.5647058823529412</v>
+        <v>0.5529411764705883</v>
       </c>
       <c r="L39">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="M39">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -2480,7 +2486,7 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>148</v>
+        <v>152</v>
       </c>
     </row>
     <row r="40" spans="1:17">
@@ -2488,13 +2494,13 @@
         <v>77</v>
       </c>
       <c r="K40">
-        <v>0.5288135593220339</v>
+        <v>0.55</v>
       </c>
       <c r="L40">
-        <v>156</v>
+        <v>22</v>
       </c>
       <c r="M40">
-        <v>156</v>
+        <v>22</v>
       </c>
       <c r="N40">
         <v>1</v>
@@ -2506,7 +2512,7 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>139</v>
+        <v>18</v>
       </c>
     </row>
     <row r="41" spans="1:17">
@@ -2514,13 +2520,13 @@
         <v>78</v>
       </c>
       <c r="K41">
-        <v>0.525</v>
+        <v>0.5416666666666666</v>
       </c>
       <c r="L41">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="M41">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="N41">
         <v>1</v>
@@ -2532,7 +2538,7 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>19</v>
+        <v>11</v>
       </c>
     </row>
     <row r="42" spans="1:17">
@@ -2540,13 +2546,13 @@
         <v>79</v>
       </c>
       <c r="K42">
-        <v>0.5161290322580645</v>
+        <v>0.5357142857142857</v>
       </c>
       <c r="L42">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M42">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="N42">
         <v>1</v>
@@ -2558,7 +2564,7 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="43" spans="1:17">
@@ -2566,13 +2572,13 @@
         <v>80</v>
       </c>
       <c r="K43">
-        <v>0.5</v>
+        <v>0.5357142857142857</v>
       </c>
       <c r="L43">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="M43">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="N43">
         <v>1</v>
@@ -2584,7 +2590,7 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="44" spans="1:17">
@@ -2592,13 +2598,13 @@
         <v>81</v>
       </c>
       <c r="K44">
-        <v>0.4923076923076923</v>
+        <v>0.535593220338983</v>
       </c>
       <c r="L44">
-        <v>32</v>
+        <v>158</v>
       </c>
       <c r="M44">
-        <v>32</v>
+        <v>158</v>
       </c>
       <c r="N44">
         <v>1</v>
@@ -2610,7 +2616,7 @@
         <v>0</v>
       </c>
       <c r="Q44">
-        <v>33</v>
+        <v>137</v>
       </c>
     </row>
     <row r="45" spans="1:17">
@@ -2618,13 +2624,13 @@
         <v>82</v>
       </c>
       <c r="K45">
-        <v>0.4848484848484849</v>
+        <v>0.525</v>
       </c>
       <c r="L45">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="M45">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="N45">
         <v>1</v>
@@ -2636,7 +2642,7 @@
         <v>0</v>
       </c>
       <c r="Q45">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="46" spans="1:17">
@@ -2644,13 +2650,13 @@
         <v>83</v>
       </c>
       <c r="K46">
-        <v>0.484375</v>
+        <v>0.5168539325842697</v>
       </c>
       <c r="L46">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="M46">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="N46">
         <v>1</v>
@@ -2662,7 +2668,7 @@
         <v>0</v>
       </c>
       <c r="Q46">
-        <v>33</v>
+        <v>43</v>
       </c>
     </row>
     <row r="47" spans="1:17">
@@ -2670,13 +2676,13 @@
         <v>84</v>
       </c>
       <c r="K47">
-        <v>0.475</v>
+        <v>0.5161290322580645</v>
       </c>
       <c r="L47">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="M47">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="N47">
         <v>1</v>
@@ -2688,7 +2694,7 @@
         <v>0</v>
       </c>
       <c r="Q47">
-        <v>21</v>
+        <v>15</v>
       </c>
     </row>
     <row r="48" spans="1:17">
@@ -2696,13 +2702,13 @@
         <v>85</v>
       </c>
       <c r="K48">
-        <v>0.4719101123595505</v>
+        <v>0.4761904761904762</v>
       </c>
       <c r="L48">
-        <v>42</v>
+        <v>20</v>
       </c>
       <c r="M48">
-        <v>42</v>
+        <v>20</v>
       </c>
       <c r="N48">
         <v>1</v>
@@ -2714,7 +2720,7 @@
         <v>0</v>
       </c>
       <c r="Q48">
-        <v>47</v>
+        <v>22</v>
       </c>
     </row>
     <row r="49" spans="10:17">
@@ -2722,13 +2728,13 @@
         <v>86</v>
       </c>
       <c r="K49">
-        <v>0.4642857142857143</v>
+        <v>0.4644351464435146</v>
       </c>
       <c r="L49">
-        <v>13</v>
+        <v>111</v>
       </c>
       <c r="M49">
-        <v>13</v>
+        <v>111</v>
       </c>
       <c r="N49">
         <v>1</v>
@@ -2740,7 +2746,7 @@
         <v>0</v>
       </c>
       <c r="Q49">
-        <v>15</v>
+        <v>128</v>
       </c>
     </row>
     <row r="50" spans="10:17">
@@ -2748,13 +2754,13 @@
         <v>87</v>
       </c>
       <c r="K50">
-        <v>0.4560669456066946</v>
+        <v>0.4571428571428571</v>
       </c>
       <c r="L50">
-        <v>109</v>
+        <v>16</v>
       </c>
       <c r="M50">
-        <v>109</v>
+        <v>16</v>
       </c>
       <c r="N50">
         <v>1</v>
@@ -2766,7 +2772,7 @@
         <v>0</v>
       </c>
       <c r="Q50">
-        <v>130</v>
+        <v>19</v>
       </c>
     </row>
     <row r="51" spans="10:17">
@@ -2774,13 +2780,13 @@
         <v>88</v>
       </c>
       <c r="K51">
-        <v>0.4523809523809524</v>
+        <v>0.4545454545454545</v>
       </c>
       <c r="L51">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="M51">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="N51">
         <v>1</v>
@@ -2792,7 +2798,7 @@
         <v>0</v>
       </c>
       <c r="Q51">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="52" spans="10:17">
@@ -2800,25 +2806,25 @@
         <v>89</v>
       </c>
       <c r="K52">
-        <v>0.4487179487179487</v>
+        <v>0.453125</v>
       </c>
       <c r="L52">
+        <v>29</v>
+      </c>
+      <c r="M52">
+        <v>29</v>
+      </c>
+      <c r="N52">
+        <v>1</v>
+      </c>
+      <c r="O52">
+        <v>0</v>
+      </c>
+      <c r="P52" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q52">
         <v>35</v>
-      </c>
-      <c r="M52">
-        <v>35</v>
-      </c>
-      <c r="N52">
-        <v>1</v>
-      </c>
-      <c r="O52">
-        <v>0</v>
-      </c>
-      <c r="P52" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q52">
-        <v>43</v>
       </c>
     </row>
     <row r="53" spans="10:17">
@@ -2826,13 +2832,13 @@
         <v>90</v>
       </c>
       <c r="K53">
-        <v>0.3972602739726027</v>
+        <v>0.4358974358974359</v>
       </c>
       <c r="L53">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="M53">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="N53">
         <v>1</v>
@@ -2852,13 +2858,13 @@
         <v>91</v>
       </c>
       <c r="K54">
-        <v>0.3571428571428572</v>
+        <v>0.410958904109589</v>
       </c>
       <c r="L54">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="M54">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="N54">
         <v>1</v>
@@ -2870,7 +2876,7 @@
         <v>0</v>
       </c>
       <c r="Q54">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="55" spans="10:17">
@@ -2878,13 +2884,13 @@
         <v>92</v>
       </c>
       <c r="K55">
-        <v>0.2786885245901639</v>
+        <v>0.4</v>
       </c>
       <c r="L55">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="M55">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="N55">
         <v>1</v>
@@ -2896,7 +2902,7 @@
         <v>0</v>
       </c>
       <c r="Q55">
-        <v>44</v>
+        <v>39</v>
       </c>
     </row>
     <row r="56" spans="10:17">
@@ -2904,13 +2910,13 @@
         <v>93</v>
       </c>
       <c r="K56">
-        <v>0.2765957446808511</v>
+        <v>0.3285714285714286</v>
       </c>
       <c r="L56">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="M56">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="N56">
         <v>1</v>
@@ -2922,7 +2928,7 @@
         <v>0</v>
       </c>
       <c r="Q56">
-        <v>34</v>
+        <v>47</v>
       </c>
     </row>
     <row r="57" spans="10:17">
@@ -2930,25 +2936,25 @@
         <v>94</v>
       </c>
       <c r="K57">
-        <v>0.2676056338028169</v>
+        <v>0.2978723404255319</v>
       </c>
       <c r="L57">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="M57">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="N57">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="O57">
-        <v>0.05000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P57" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q57">
-        <v>52</v>
+        <v>33</v>
       </c>
     </row>
     <row r="58" spans="10:17">
@@ -2956,7 +2962,7 @@
         <v>95</v>
       </c>
       <c r="K58">
-        <v>0.2542372881355932</v>
+        <v>0.2459016393442623</v>
       </c>
       <c r="L58">
         <v>15</v>
@@ -2974,7 +2980,7 @@
         <v>0</v>
       </c>
       <c r="Q58">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="59" spans="10:17">
@@ -2982,13 +2988,13 @@
         <v>96</v>
       </c>
       <c r="K59">
-        <v>0.2372881355932203</v>
+        <v>0.2361111111111111</v>
       </c>
       <c r="L59">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="M59">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="N59">
         <v>1</v>
@@ -3000,7 +3006,7 @@
         <v>0</v>
       </c>
       <c r="Q59">
-        <v>45</v>
+        <v>55</v>
       </c>
     </row>
     <row r="60" spans="10:17">
@@ -3008,13 +3014,13 @@
         <v>97</v>
       </c>
       <c r="K60">
-        <v>0.1684210526315789</v>
+        <v>0.2203389830508475</v>
       </c>
       <c r="L60">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="M60">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="N60">
         <v>1</v>
@@ -3026,7 +3032,7 @@
         <v>0</v>
       </c>
       <c r="Q60">
-        <v>79</v>
+        <v>46</v>
       </c>
     </row>
     <row r="61" spans="10:17">
@@ -3034,13 +3040,13 @@
         <v>98</v>
       </c>
       <c r="K61">
-        <v>0.1496062992125984</v>
+        <v>0.1368421052631579</v>
       </c>
       <c r="L61">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M61">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="N61">
         <v>1</v>
@@ -3052,7 +3058,7 @@
         <v>0</v>
       </c>
       <c r="Q61">
-        <v>108</v>
+        <v>82</v>
       </c>
     </row>
     <row r="62" spans="10:17">
@@ -3060,13 +3066,13 @@
         <v>99</v>
       </c>
       <c r="K62">
-        <v>0.1052631578947368</v>
+        <v>0.1221374045801527</v>
       </c>
       <c r="L62">
-        <v>44</v>
+        <v>16</v>
       </c>
       <c r="M62">
-        <v>44</v>
+        <v>16</v>
       </c>
       <c r="N62">
         <v>1</v>
@@ -3078,7 +3084,7 @@
         <v>0</v>
       </c>
       <c r="Q62">
-        <v>374</v>
+        <v>115</v>
       </c>
     </row>
     <row r="63" spans="10:17">
@@ -3086,13 +3092,13 @@
         <v>100</v>
       </c>
       <c r="K63">
-        <v>0.09923664122137404</v>
+        <v>0.1151515151515152</v>
       </c>
       <c r="L63">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M63">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="N63">
         <v>1</v>
@@ -3104,7 +3110,7 @@
         <v>0</v>
       </c>
       <c r="Q63">
-        <v>118</v>
+        <v>146</v>
       </c>
     </row>
     <row r="64" spans="10:17">
@@ -3112,13 +3118,13 @@
         <v>101</v>
       </c>
       <c r="K64">
-        <v>0.0889423076923077</v>
+        <v>0.1052631578947368</v>
       </c>
       <c r="L64">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="M64">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="N64">
         <v>1</v>
@@ -3130,7 +3136,7 @@
         <v>0</v>
       </c>
       <c r="Q64">
-        <v>379</v>
+        <v>374</v>
       </c>
     </row>
     <row r="65" spans="10:17">
@@ -3138,13 +3144,13 @@
         <v>102</v>
       </c>
       <c r="K65">
-        <v>0.0880503144654088</v>
+        <v>0.1023622047244094</v>
       </c>
       <c r="L65">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="M65">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="N65">
         <v>1</v>
@@ -3156,7 +3162,7 @@
         <v>0</v>
       </c>
       <c r="Q65">
-        <v>145</v>
+        <v>114</v>
       </c>
     </row>
     <row r="66" spans="10:17">
@@ -3164,13 +3170,13 @@
         <v>103</v>
       </c>
       <c r="K66">
-        <v>0.06976744186046512</v>
+        <v>0.1009615384615385</v>
       </c>
       <c r="L66">
-        <v>15</v>
+        <v>42</v>
       </c>
       <c r="M66">
-        <v>15</v>
+        <v>42</v>
       </c>
       <c r="N66">
         <v>1</v>
@@ -3182,7 +3188,7 @@
         <v>0</v>
       </c>
       <c r="Q66">
-        <v>200</v>
+        <v>374</v>
       </c>
     </row>
     <row r="67" spans="10:17">
@@ -3190,13 +3196,13 @@
         <v>104</v>
       </c>
       <c r="K67">
-        <v>0.06976744186046512</v>
+        <v>0.08837209302325581</v>
       </c>
       <c r="L67">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="M67">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="N67">
         <v>1</v>
@@ -3208,7 +3214,7 @@
         <v>0</v>
       </c>
       <c r="Q67">
-        <v>200</v>
+        <v>196</v>
       </c>
     </row>
     <row r="68" spans="10:17">
@@ -3216,13 +3222,13 @@
         <v>105</v>
       </c>
       <c r="K68">
-        <v>0.06152125279642058</v>
+        <v>0.08372093023255814</v>
       </c>
       <c r="L68">
-        <v>55</v>
+        <v>18</v>
       </c>
       <c r="M68">
-        <v>55</v>
+        <v>18</v>
       </c>
       <c r="N68">
         <v>1</v>
@@ -3234,7 +3240,7 @@
         <v>0</v>
       </c>
       <c r="Q68">
-        <v>839</v>
+        <v>197</v>
       </c>
     </row>
     <row r="69" spans="10:17">
@@ -3242,13 +3248,13 @@
         <v>106</v>
       </c>
       <c r="K69">
-        <v>0.04892966360856269</v>
+        <v>0.07975460122699386</v>
       </c>
       <c r="L69">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="M69">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="N69">
         <v>1</v>
@@ -3260,7 +3266,7 @@
         <v>0</v>
       </c>
       <c r="Q69">
-        <v>311</v>
+        <v>150</v>
       </c>
     </row>
     <row r="70" spans="10:17">
@@ -3268,13 +3274,13 @@
         <v>107</v>
       </c>
       <c r="K70">
-        <v>0.04328523862375139</v>
+        <v>0.06375838926174497</v>
       </c>
       <c r="L70">
-        <v>39</v>
+        <v>57</v>
       </c>
       <c r="M70">
-        <v>39</v>
+        <v>57</v>
       </c>
       <c r="N70">
         <v>1</v>
@@ -3286,7 +3292,7 @@
         <v>0</v>
       </c>
       <c r="Q70">
-        <v>862</v>
+        <v>837</v>
       </c>
     </row>
     <row r="71" spans="10:17">
@@ -3294,25 +3300,25 @@
         <v>108</v>
       </c>
       <c r="K71">
-        <v>0.04314329738058552</v>
+        <v>0.05828220858895705</v>
       </c>
       <c r="L71">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="M71">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="N71">
-        <v>0.97</v>
+        <v>0.95</v>
       </c>
       <c r="O71">
-        <v>0.03000000000000003</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="P71" t="b">
         <v>1</v>
       </c>
       <c r="Q71">
-        <v>621</v>
+        <v>307</v>
       </c>
     </row>
     <row r="72" spans="10:17">
@@ -3320,13 +3326,13 @@
         <v>109</v>
       </c>
       <c r="K72">
-        <v>0.02998846597462514</v>
+        <v>0.05438401775804662</v>
       </c>
       <c r="L72">
-        <v>26</v>
+        <v>49</v>
       </c>
       <c r="M72">
-        <v>26</v>
+        <v>49</v>
       </c>
       <c r="N72">
         <v>1</v>
@@ -3338,7 +3344,7 @@
         <v>0</v>
       </c>
       <c r="Q72">
-        <v>841</v>
+        <v>852</v>
       </c>
     </row>
     <row r="73" spans="10:17">
@@ -3346,25 +3352,25 @@
         <v>110</v>
       </c>
       <c r="K73">
-        <v>0.02897196261682243</v>
+        <v>0.04930662557781202</v>
       </c>
       <c r="L73">
-        <v>62</v>
+        <v>32</v>
       </c>
       <c r="M73">
-        <v>65</v>
+        <v>33</v>
       </c>
       <c r="N73">
-        <v>0.95</v>
+        <v>0.97</v>
       </c>
       <c r="O73">
-        <v>0.05000000000000004</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P73" t="b">
         <v>1</v>
       </c>
       <c r="Q73">
-        <v>2078</v>
+        <v>617</v>
       </c>
     </row>
     <row r="74" spans="10:17">
@@ -3372,25 +3378,25 @@
         <v>111</v>
       </c>
       <c r="K74">
-        <v>0.01805869074492099</v>
+        <v>0.02758298270219729</v>
       </c>
       <c r="L74">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="M74">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="N74">
-        <v>0.9</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O74">
-        <v>0.09999999999999998</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="P74" t="b">
         <v>1</v>
       </c>
       <c r="Q74">
-        <v>3045</v>
+        <v>2080</v>
       </c>
     </row>
     <row r="75" spans="10:17">
@@ -3398,25 +3404,25 @@
         <v>112</v>
       </c>
       <c r="K75">
-        <v>0.01654601861427094</v>
+        <v>0.02306805074971165</v>
       </c>
       <c r="L75">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="M75">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="N75">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O75">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P75" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q75">
-        <v>951</v>
+        <v>847</v>
       </c>
     </row>
     <row r="76" spans="10:17">
@@ -3424,25 +3430,77 @@
         <v>113</v>
       </c>
       <c r="K76">
-        <v>0.007507037847982484</v>
+        <v>0.01676337846550613</v>
       </c>
       <c r="L76">
-        <v>24</v>
+        <v>52</v>
       </c>
       <c r="M76">
-        <v>28</v>
+        <v>57</v>
       </c>
       <c r="N76">
+        <v>0.91</v>
+      </c>
+      <c r="O76">
+        <v>0.08999999999999997</v>
+      </c>
+      <c r="P76" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q76">
+        <v>3050</v>
+      </c>
+    </row>
+    <row r="77" spans="10:17">
+      <c r="J77" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="K77">
+        <v>0.01654601861427094</v>
+      </c>
+      <c r="L77">
+        <v>16</v>
+      </c>
+      <c r="M77">
+        <v>17</v>
+      </c>
+      <c r="N77">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="O77">
+        <v>0.06000000000000005</v>
+      </c>
+      <c r="P77" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q77">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="78" spans="10:17">
+      <c r="J78" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="K78">
+        <v>0.005941213258286429</v>
+      </c>
+      <c r="L78">
+        <v>19</v>
+      </c>
+      <c r="M78">
+        <v>22</v>
+      </c>
+      <c r="N78">
         <v>0.86</v>
       </c>
-      <c r="O76">
+      <c r="O78">
         <v>0.14</v>
       </c>
-      <c r="P76" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q76">
-        <v>3173</v>
+      <c r="P78" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q78">
+        <v>3179</v>
       </c>
     </row>
   </sheetData>
